--- a/data/trans_dic/P16A20-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A20-Edad-trans_dic.xlsx
@@ -721,25 +721,25 @@
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.002450756858846571</v>
+        <v>0.002475805131941876</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.002478433036057147</v>
+        <v>0.002424917215543133</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01541162081892202</v>
+        <v>0.01469183779769297</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.002261092277598911</v>
+        <v>0.002329000681889637</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.002376433891907444</v>
+        <v>0.002316024297430495</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01193504415451372</v>
+        <v>0.01152305722259158</v>
       </c>
     </row>
     <row r="6">
@@ -751,37 +751,37 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.01036729825297898</v>
+        <v>0.01212005256377606</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0140002084534616</v>
+        <v>0.01272054000509367</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04504343811086833</v>
+        <v>0.04196280170357686</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01034714043934797</v>
+        <v>0.01144621158258034</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.02407381411746933</v>
+        <v>0.02416800112433843</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02421128040680468</v>
+        <v>0.02384357740811442</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.07391344516192756</v>
+        <v>0.07344170006845227</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.005537636150347744</v>
+        <v>0.005561989466493365</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.01476593093785273</v>
+        <v>0.01360316213811873</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01420566855670677</v>
+        <v>0.01327262919380033</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.04856092745889763</v>
+        <v>0.0458355432799707</v>
       </c>
     </row>
     <row r="7">
@@ -840,7 +840,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.002639897374137817</v>
+        <v>0.002715252680966028</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>0</v>
@@ -852,28 +852,28 @@
         <v>0</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.001486758812177146</v>
+        <v>0.00149309869193478</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01298735769329082</v>
+        <v>0.01235933296519201</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01287090438543912</v>
+        <v>0.01183882183604271</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02114848463452677</v>
+        <v>0.02283831069259655</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.002215658435327195</v>
+        <v>0.002889389079913954</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.006713908181974058</v>
+        <v>0.006862117781009768</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.007142843366092146</v>
+        <v>0.007903774333318521</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01143534518815204</v>
+        <v>0.01234727977017436</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01492220142021622</v>
+        <v>0.01634902345580906</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.009456404064950033</v>
+        <v>0.009508771267940931</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01253781469173461</v>
+        <v>0.01134796566819263</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.01415497614161128</v>
+        <v>0.01442092723606659</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01311893434541439</v>
+        <v>0.0129406226976908</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03726974500716818</v>
+        <v>0.03742180752008104</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03836750712100123</v>
+        <v>0.03808015610618523</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05535412004951878</v>
+        <v>0.05655924149048945</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01105296574653773</v>
+        <v>0.01142605856997174</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.0189424869897891</v>
+        <v>0.01900533552829247</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.0199030847387109</v>
+        <v>0.02001524345141478</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.0314183679249408</v>
+        <v>0.03047214729838446</v>
       </c>
     </row>
     <row r="10">
@@ -965,7 +965,7 @@
         <v>0.02643470867742772</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.03340767838727489</v>
+        <v>0.0334076783872749</v>
       </c>
     </row>
     <row r="11">
@@ -983,31 +983,31 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.001813781073077874</v>
+        <v>0.001763920336074262</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.0173197901808243</v>
+        <v>0.01829295015520977</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03474892954134933</v>
+        <v>0.03490745850646652</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04641383997630345</v>
+        <v>0.04444770669392148</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0007521200282922071</v>
+        <v>0.0007483902829534344</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.008818740289794999</v>
+        <v>0.008732880923091156</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01810185922472641</v>
+        <v>0.0189533788964384</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.0255169680767058</v>
+        <v>0.02524474072279276</v>
       </c>
     </row>
     <row r="12">
@@ -1018,38 +1018,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.00866834041494356</v>
+        <v>0.01016816126463706</v>
       </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.008443177710287788</v>
+        <v>0.008295687251724276</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01592871106486318</v>
+        <v>0.0153336405582062</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.009154372546037334</v>
+        <v>0.01154283255311985</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04533458781276582</v>
+        <v>0.04308882168806979</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06992873295003829</v>
+        <v>0.0700958917475776</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.07827347775503656</v>
+        <v>0.07601741613441093</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.006801880982739806</v>
+        <v>0.006405618112809172</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02269229057609254</v>
+        <v>0.02217867092434073</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03500944388361051</v>
+        <v>0.03656059269459406</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.04348502449128226</v>
+        <v>0.04347264506987002</v>
       </c>
     </row>
     <row r="13">
@@ -1097,7 +1097,7 @@
         <v>0.0400376515577754</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.05081569971266803</v>
+        <v>0.05081569971266804</v>
       </c>
     </row>
     <row r="14">
@@ -1111,37 +1111,37 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.001546494734526932</v>
+        <v>0.00157830692842902</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.003415660318030531</v>
+        <v>0.003517394028220299</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.007437674144443796</v>
+        <v>0.007690100173895537</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.003785530931744411</v>
+        <v>0.003788019004774058</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04242934102297031</v>
+        <v>0.0432386142608626</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05103172961058077</v>
+        <v>0.05157903469351587</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.06950485575511466</v>
+        <v>0.06928744390935643</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.002941769907491515</v>
+        <v>0.002822785542569061</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02394293607491954</v>
+        <v>0.02317468642229554</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02945535566413676</v>
+        <v>0.02976167761501724</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.04211654281198418</v>
+        <v>0.04174582143308655</v>
       </c>
     </row>
     <row r="15">
@@ -1152,40 +1152,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01284161898618996</v>
+        <v>0.01188769572893089</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0127037740979942</v>
+        <v>0.0147948373262102</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01997882777753864</v>
+        <v>0.02288277373645459</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02712665804652502</v>
+        <v>0.02591947802883894</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02253498324208969</v>
+        <v>0.02148748351051992</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.08229520746407311</v>
+        <v>0.08527323442159336</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.09529870411981226</v>
+        <v>0.09389424509338055</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1011753431430598</v>
+        <v>0.1006652543407342</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01397597863789791</v>
+        <v>0.0136257092275204</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.04620971284260873</v>
+        <v>0.04489698072825666</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.05229862851532295</v>
+        <v>0.05232526972746748</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.06079329713780479</v>
+        <v>0.06061884689834547</v>
       </c>
     </row>
     <row r="16">
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.002106622402813292</v>
+        <v>0.002123890904090398</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
@@ -1253,31 +1253,31 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.008821457627065984</v>
+        <v>0.008647234920986012</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.004396393225763605</v>
+        <v>0.004402241908084263</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.04886104232905975</v>
+        <v>0.05083036405728856</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.04390154314430646</v>
+        <v>0.04123051803800955</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1116443212988904</v>
+        <v>0.1129099558793657</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.004552561601176571</v>
+        <v>0.004642658786780527</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.02777059032295217</v>
+        <v>0.02711817607961605</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.02331543625583389</v>
+        <v>0.02363365451540854</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.06357711351071955</v>
+        <v>0.06383680779098672</v>
       </c>
     </row>
     <row r="18">
@@ -1288,40 +1288,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02050046489744554</v>
+        <v>0.02182152605364575</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01961370532987319</v>
+        <v>0.01736342581103877</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01531128746250092</v>
+        <v>0.01536502959159832</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.02748349208556047</v>
+        <v>0.0280092807342423</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.0256359203100957</v>
+        <v>0.02435122719824855</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1032789490965289</v>
+        <v>0.1014461901033372</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.09052926126069889</v>
+        <v>0.08769895240715121</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1548685874368139</v>
+        <v>0.1550546262904218</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01827630074134845</v>
+        <v>0.01787409663945974</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.05610710975834672</v>
+        <v>0.0551979781910691</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.04894702053597269</v>
+        <v>0.04833105945554977</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.08849709743653049</v>
+        <v>0.08712477934027729</v>
       </c>
     </row>
     <row r="19">
@@ -1380,38 +1380,38 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.002722595901136157</v>
+        <v>0.002721376460000952</v>
       </c>
       <c r="D20" s="5" t="inlineStr"/>
       <c r="E20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01224860173609263</v>
+        <v>0.01250720379675114</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.00260565633275484</v>
+        <v>0.002613946782630921</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.0138935408691286</v>
+        <v>0.01417165367329431</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.02194977781539858</v>
+        <v>0.02196630485049246</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1011520086628502</v>
+        <v>0.1033857342630827</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.002889083293398712</v>
+        <v>0.002881889334362041</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.007350090320476347</v>
+        <v>0.00742145296187067</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.01295269885883002</v>
+        <v>0.01353505594109085</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.06215455104523568</v>
+        <v>0.06331196488382584</v>
       </c>
     </row>
     <row r="21">
@@ -1422,38 +1422,38 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02244146708900158</v>
+        <v>0.02306297005175062</v>
       </c>
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="n">
-        <v>0.01398056746498501</v>
+        <v>0.01121951363804148</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.03806977808029656</v>
+        <v>0.03790452910008135</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.02368240872128776</v>
+        <v>0.02125085693280215</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.048194661654267</v>
+        <v>0.05078507518415252</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.06338815497611444</v>
+        <v>0.06862814626535449</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1481408062038629</v>
+        <v>0.1486532959821117</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.0174416428181926</v>
+        <v>0.01654873362659743</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.0267121208059558</v>
+        <v>0.02560842416911297</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.03516042228009104</v>
+        <v>0.03692794006597231</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.08910797368983263</v>
+        <v>0.08956187994329673</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.03459125759621647</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.09772805331098426</v>
+        <v>0.09772805331098428</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.001738134758672902</v>
@@ -1519,29 +1519,29 @@
       </c>
       <c r="E23" s="5" t="inlineStr"/>
       <c r="F23" s="5" t="n">
-        <v>0.01148920290262858</v>
+        <v>0.01132135957068254</v>
       </c>
       <c r="G23" s="5" t="inlineStr"/>
       <c r="H23" s="5" t="n">
-        <v>0.003062525332665081</v>
+        <v>0.003049275062786619</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.01948224407428083</v>
+        <v>0.01841911372740272</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.07706521364497618</v>
+        <v>0.07903427904255531</v>
       </c>
       <c r="K23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.003388585355285655</v>
+        <v>0.003306721555082312</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.009833718267038756</v>
+        <v>0.01017518980604896</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.05471788656531981</v>
+        <v>0.05507416237984554</v>
       </c>
     </row>
     <row r="24">
@@ -1552,36 +1552,36 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02245953783878061</v>
+        <v>0.0224590006644945</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02153141417025331</v>
+        <v>0.02133553654716537</v>
       </c>
       <c r="E24" s="5" t="inlineStr"/>
       <c r="F24" s="5" t="n">
-        <v>0.03929958701468264</v>
+        <v>0.0405311021831242</v>
       </c>
       <c r="G24" s="5" t="inlineStr"/>
       <c r="H24" s="5" t="n">
-        <v>0.02781730744812992</v>
+        <v>0.02926387402337355</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.06156622849363995</v>
+        <v>0.06673399371100416</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.11885304871061</v>
+        <v>0.1204464527816696</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.008704959013031791</v>
+        <v>0.008733863497666854</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.0199802669696431</v>
+        <v>0.02000547370281234</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.03805455967025517</v>
+        <v>0.03608981428564539</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.08366951564829543</v>
+        <v>0.08338124383745817</v>
       </c>
     </row>
     <row r="25">
@@ -1617,7 +1617,7 @@
         <v>0.04391016616018439</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.08335939018949527</v>
+        <v>0.08335939018949524</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.004992683250538844</v>
@@ -1629,7 +1629,7 @@
         <v>0.02448702030884812</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.04935247601522098</v>
+        <v>0.049352476015221</v>
       </c>
     </row>
     <row r="26">
@@ -1640,40 +1640,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.0026362524286757</v>
+        <v>0.002614435593765683</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.001183357458395933</v>
+        <v>0.001148836522976584</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.002457876952140602</v>
+        <v>0.002451862050430793</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.009490426092679763</v>
+        <v>0.009850761454614766</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.003391280361682762</v>
+        <v>0.003302504445240993</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.02837819079844674</v>
+        <v>0.02807869117532977</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.03722838677037966</v>
+        <v>0.03728095033833351</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.07564579918247535</v>
+        <v>0.07616482588294896</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.003440422952687366</v>
+        <v>0.003505247300488199</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.01566128265475742</v>
+        <v>0.0157646202844638</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.02085968541148665</v>
+        <v>0.02096009120129991</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.04508302511540447</v>
+        <v>0.04515796549293816</v>
       </c>
     </row>
     <row r="27">
@@ -1684,40 +1684,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.007299205830375028</v>
+        <v>0.007122860897009029</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.004764239899436434</v>
+        <v>0.004637166010440964</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.006812800104598631</v>
+        <v>0.007043768335075613</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.01785674746800205</v>
+        <v>0.0178347658486354</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.008469660939762112</v>
+        <v>0.008365341556381946</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.04189306408618267</v>
+        <v>0.04085140210407929</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.05102867192285026</v>
+        <v>0.05127260756408346</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.09057722051449342</v>
+        <v>0.09136920961432299</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.006830873441746001</v>
+        <v>0.006899424838783807</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.02250917192163862</v>
+        <v>0.02270727511248639</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.02850994058823742</v>
+        <v>0.02861783367497479</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.05406271006467305</v>
+        <v>0.05434837223615735</v>
       </c>
     </row>
     <row r="28">
@@ -2004,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1052</v>
+        <v>1063</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>981</v>
+        <v>960</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>5587</v>
+        <v>5326</v>
       </c>
       <c r="K6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1995</v>
+        <v>2055</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>1937</v>
+        <v>1888</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>9194</v>
+        <v>8876</v>
       </c>
     </row>
     <row r="7">
@@ -2034,37 +2034,37 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>4697</v>
+        <v>5492</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>5873</v>
+        <v>5336</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>18368</v>
+        <v>17112</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>4837</v>
+        <v>5351</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>10336</v>
+        <v>10376</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>9582</v>
+        <v>9436</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>26795</v>
+        <v>26623</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>5325</v>
+        <v>5348</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>13030</v>
+        <v>12004</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>11581</v>
+        <v>10820</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>37407</v>
+        <v>35307</v>
       </c>
     </row>
     <row r="8">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1942</v>
+        <v>1997</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>0</v>
@@ -2179,28 +2179,28 @@
         <v>0</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>7912</v>
+        <v>7529</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>7253</v>
+        <v>6672</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>10597</v>
+        <v>11444</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>3015</v>
+        <v>3932</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>8698</v>
+        <v>8890</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>8243</v>
+        <v>9121</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>11183</v>
+        <v>12075</v>
       </c>
     </row>
     <row r="11">
@@ -2211,40 +2211,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>10975</v>
+        <v>12025</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>6489</v>
+        <v>6525</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>7404</v>
+        <v>6701</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>6750</v>
+        <v>6877</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>8206</v>
+        <v>8094</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>22705</v>
+        <v>22798</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>21622</v>
+        <v>21460</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>27737</v>
+        <v>28341</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>15043</v>
+        <v>15551</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>24539</v>
+        <v>24620</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>22969</v>
+        <v>23098</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>30726</v>
+        <v>29801</v>
       </c>
     </row>
     <row r="12">
@@ -2354,31 +2354,31 @@
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1126</v>
+        <v>1095</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>12244</v>
+        <v>12932</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>22982</v>
+        <v>23087</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>28876</v>
+        <v>27653</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>12231</v>
+        <v>12112</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>24084</v>
+        <v>25217</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>31717</v>
+        <v>31379</v>
       </c>
     </row>
     <row r="15">
@@ -2389,38 +2389,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5527</v>
+        <v>6484</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>5649</v>
+        <v>5551</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>9889</v>
+        <v>9520</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>6314</v>
+        <v>7962</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>32048</v>
+        <v>30460</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>46250</v>
+        <v>46360</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>48697</v>
+        <v>47293</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>9029</v>
+        <v>8503</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>31474</v>
+        <v>30761</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>46579</v>
+        <v>48643</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>54051</v>
+        <v>54035</v>
       </c>
     </row>
     <row r="16">
@@ -2526,37 +2526,37 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>951</v>
+        <v>970</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2207</v>
+        <v>2272</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>5211</v>
+        <v>5388</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>26060</v>
+        <v>26558</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>33124</v>
+        <v>33479</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>51217</v>
+        <v>51057</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>3044</v>
+        <v>2921</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>29422</v>
+        <v>28478</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>38148</v>
+        <v>38545</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>60543</v>
+        <v>60010</v>
       </c>
     </row>
     <row r="19">
@@ -2567,40 +2567,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>6667</v>
+        <v>6171</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>7808</v>
+        <v>9093</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>12907</v>
+        <v>14783</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>19005</v>
+        <v>18160</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>11620</v>
+        <v>11080</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>50546</v>
+        <v>52376</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>61856</v>
+        <v>60945</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>74555</v>
+        <v>74179</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>14462</v>
+        <v>14100</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>56784</v>
+        <v>55171</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>67733</v>
+        <v>67768</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>87391</v>
+        <v>87140</v>
       </c>
     </row>
     <row r="20">
@@ -2703,7 +2703,7 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>0</v>
@@ -2712,31 +2712,31 @@
         <v>0</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>5367</v>
+        <v>5261</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>21880</v>
+        <v>22762</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>21812</v>
+        <v>20485</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>67737</v>
+        <v>68505</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>3600</v>
+        <v>3671</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>24331</v>
+        <v>23759</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>22727</v>
+        <v>23037</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>77251</v>
+        <v>77567</v>
       </c>
     </row>
     <row r="23">
@@ -2747,40 +2747,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>7928</v>
+        <v>8439</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>8401</v>
+        <v>7438</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>7318</v>
+        <v>7343</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>16720</v>
+        <v>17040</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>10357</v>
+        <v>9838</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>46248</v>
+        <v>45428</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>44979</v>
+        <v>43573</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>93962</v>
+        <v>94075</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>14451</v>
+        <v>14133</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>49158</v>
+        <v>48361</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>47712</v>
+        <v>47112</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>107531</v>
+        <v>105864</v>
       </c>
     </row>
     <row r="24">
@@ -2883,38 +2883,38 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>4986</v>
+        <v>5091</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>4905</v>
+        <v>5003</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>8292</v>
+        <v>8298</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>44384</v>
+        <v>45364</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1836</v>
+        <v>1831</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>4872</v>
+        <v>4919</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>9224</v>
+        <v>9638</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>52574</v>
+        <v>53554</v>
       </c>
     </row>
     <row r="27">
@@ -2925,38 +2925,38 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>6566</v>
+        <v>6748</v>
       </c>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>4674</v>
+        <v>3751</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>15497</v>
+        <v>15430</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>8122</v>
+        <v>7288</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>17016</v>
+        <v>17930</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>23946</v>
+        <v>25925</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>65002</v>
+        <v>65227</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>11084</v>
+        <v>10517</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>17706</v>
+        <v>16974</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>25037</v>
+        <v>26296</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>75373</v>
+        <v>75757</v>
       </c>
     </row>
     <row r="28">
@@ -3066,29 +3066,29 @@
       </c>
       <c r="E30" s="6" t="inlineStr"/>
       <c r="F30" s="6" t="n">
-        <v>3564</v>
+        <v>3512</v>
       </c>
       <c r="G30" s="6" t="inlineStr"/>
       <c r="H30" s="6" t="n">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>7796</v>
+        <v>7371</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>35713</v>
+        <v>36625</v>
       </c>
       <c r="K30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>2154</v>
+        <v>2102</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>6462</v>
+        <v>6687</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>42330</v>
+        <v>42606</v>
       </c>
     </row>
     <row r="31">
@@ -3102,33 +3102,33 @@
         <v>4714</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>5362</v>
+        <v>5313</v>
       </c>
       <c r="E31" s="6" t="inlineStr"/>
       <c r="F31" s="6" t="n">
-        <v>12191</v>
+        <v>12573</v>
       </c>
       <c r="G31" s="6" t="inlineStr"/>
       <c r="H31" s="6" t="n">
-        <v>10758</v>
+        <v>11318</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>24637</v>
+        <v>26705</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>55078</v>
+        <v>55816</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>4734</v>
+        <v>4749</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>12703</v>
+        <v>12719</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>25008</v>
+        <v>23717</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>64727</v>
+        <v>64504</v>
       </c>
     </row>
     <row r="32">
@@ -3231,40 +3231,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>8635</v>
+        <v>8564</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>4048</v>
+        <v>3930</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>8343</v>
+        <v>8322</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>33518</v>
+        <v>34791</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>11460</v>
+        <v>11160</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>100666</v>
+        <v>99603</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>131958</v>
+        <v>132144</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>282275</v>
+        <v>284212</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>22895</v>
+        <v>23326</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>109135</v>
+        <v>109855</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>144743</v>
+        <v>145440</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>327452</v>
+        <v>327997</v>
       </c>
     </row>
     <row r="35">
@@ -3275,40 +3275,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
+        <v>23331</v>
+      </c>
+      <c r="D35" s="6" t="n">
+        <v>15865</v>
+      </c>
+      <c r="E35" s="6" t="n">
         <v>23909</v>
       </c>
-      <c r="D35" s="6" t="n">
-        <v>16299</v>
-      </c>
-      <c r="E35" s="6" t="n">
-        <v>23125</v>
-      </c>
       <c r="F35" s="6" t="n">
-        <v>63066</v>
+        <v>62988</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>28621</v>
+        <v>28268</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>148607</v>
+        <v>144912</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>180873</v>
+        <v>181738</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>337993</v>
+        <v>340948</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>45458</v>
+        <v>45914</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>156855</v>
+        <v>158235</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>197827</v>
+        <v>198576</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>392675</v>
+        <v>394749</v>
       </c>
     </row>
     <row r="36">
